--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_5.xlsx
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_0</t>
+          <t>model_4_5_23</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3622594757142954</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.5125150414117985</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.373887891416268</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.6145112206551215</v>
       </c>
       <c r="F2" t="n">
-        <v>1.087675213813782</v>
+        <v>0.7057908773422241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9696285724639893</v>
+        <v>3.211472988128662</v>
       </c>
       <c r="H2" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7844958305358887</v>
       </c>
       <c r="I2" t="n">
-        <v>1.010173797607422</v>
+        <v>2.069365501403809</v>
       </c>
     </row>
     <row r="3">
@@ -513,121 +513,121 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3625594857168539</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.5090652396989142</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.385674718229159</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.6129216683398833</v>
       </c>
       <c r="F3" t="n">
-        <v>1.087675213813782</v>
+        <v>0.7054587602615356</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9696285724639893</v>
+        <v>3.204148054122925</v>
       </c>
       <c r="H3" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7883910536766052</v>
       </c>
       <c r="I3" t="n">
-        <v>1.010173797607422</v>
+        <v>2.067327976226807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_21</t>
+          <t>model_4_5_24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3644254426447037</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.5062035510141583</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.373272822653448</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.6089017910039591</v>
       </c>
       <c r="F4" t="n">
-        <v>1.087675213813782</v>
+        <v>0.7033937573432922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9696285724639893</v>
+        <v>3.198071956634521</v>
       </c>
       <c r="H4" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7842925786972046</v>
       </c>
       <c r="I4" t="n">
-        <v>1.010173797607422</v>
+        <v>2.062175750732422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_20</t>
+          <t>model_4_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3836817245586538</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.4417067825090832</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.368373021065424</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.551743305084841</v>
       </c>
       <c r="F5" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6820827126502991</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9696285724639893</v>
+        <v>3.06112813949585</v>
       </c>
       <c r="H5" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7826733589172363</v>
       </c>
       <c r="I5" t="n">
-        <v>1.010173797607422</v>
+        <v>1.988914012908936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_19</t>
+          <t>model_4_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3930389955100585</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.4156570195912068</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.333441921891596</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.524658778886735</v>
       </c>
       <c r="F6" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6717268824577332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9696285724639893</v>
+        <v>3.005817413330078</v>
       </c>
       <c r="H6" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7711296677589417</v>
       </c>
       <c r="I6" t="n">
-        <v>1.010173797607422</v>
+        <v>1.954198956489563</v>
       </c>
     </row>
     <row r="7">
@@ -637,214 +637,214 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3960253337480781</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.4117614025005183</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.273118650116455</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.5139175776088214</v>
       </c>
       <c r="F7" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6684218645095825</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.997546195983887</v>
       </c>
       <c r="H7" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7511947154998779</v>
       </c>
       <c r="I7" t="n">
-        <v>1.010173797607422</v>
+        <v>1.940431714057922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_17</t>
+          <t>model_4_5_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3969398033090307</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.4110427281712548</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.261707348131676</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.5119088092061324</v>
       </c>
       <c r="F8" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6674098968505859</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.996020317077637</v>
       </c>
       <c r="H8" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7474236488342285</v>
       </c>
       <c r="I8" t="n">
-        <v>1.010173797607422</v>
+        <v>1.937856793403625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_16</t>
+          <t>model_4_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.3971325689249711</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.4090234179243795</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.264029291709566</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.5104196220843409</v>
       </c>
       <c r="F9" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6671966314315796</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.991732597351074</v>
       </c>
       <c r="H9" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7481909394264221</v>
       </c>
       <c r="I9" t="n">
-        <v>1.010173797607422</v>
+        <v>1.935948133468628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_15</t>
+          <t>model_4_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4093717715288218</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.3731425435499078</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.234456459356049</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.4753637661118426</v>
       </c>
       <c r="F10" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6536513566970825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.915547847747803</v>
       </c>
       <c r="H10" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7384180426597595</v>
       </c>
       <c r="I10" t="n">
-        <v>1.010173797607422</v>
+        <v>1.891016364097595</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_14</t>
+          <t>model_4_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4118840472385233</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.367791198423268</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.20850885561527</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.4675223896584073</v>
       </c>
       <c r="F11" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6508709788322449</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.90418553352356</v>
       </c>
       <c r="H11" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7298431992530823</v>
       </c>
       <c r="I11" t="n">
-        <v>1.010173797607422</v>
+        <v>1.880965709686279</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_13</t>
+          <t>model_4_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4251328212203263</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.3314779280929561</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.154618868641784</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.4291368301695995</v>
       </c>
       <c r="F12" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6362085342407227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.827082633972168</v>
       </c>
       <c r="H12" t="n">
-        <v>1.055787086486816</v>
+        <v>0.712034285068512</v>
       </c>
       <c r="I12" t="n">
-        <v>1.010173797607422</v>
+        <v>1.83176577091217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_23</t>
+          <t>model_4_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4267130217933884</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.3276738551446523</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.141011950262224</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.4241433730646018</v>
       </c>
       <c r="F13" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6344597935676575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.819005489349365</v>
       </c>
       <c r="H13" t="n">
-        <v>1.055787086486816</v>
+        <v>0.7075375914573669</v>
       </c>
       <c r="I13" t="n">
-        <v>1.010173797607422</v>
+        <v>1.825365424156189</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4347922939649401</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.3053120743525555</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.111420172188845</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.4009479417836765</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6255183815956116</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.771525621414185</v>
       </c>
       <c r="H14" t="n">
-        <v>1.055787086486816</v>
+        <v>0.6977584362030029</v>
       </c>
       <c r="I14" t="n">
-        <v>1.010173797607422</v>
+        <v>1.795635342597961</v>
       </c>
     </row>
     <row r="15">
@@ -885,369 +885,369 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4360263234811244</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.3071710021624132</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.063889938869722</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.3968110522609007</v>
       </c>
       <c r="F15" t="n">
-        <v>1.087675213813782</v>
+        <v>0.624152660369873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.77547287940979</v>
       </c>
       <c r="H15" t="n">
-        <v>1.055787086486816</v>
+        <v>0.6820511221885681</v>
       </c>
       <c r="I15" t="n">
-        <v>1.010173797607422</v>
+        <v>1.790332794189453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_9</t>
+          <t>model_4_5_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4370633115721536</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.2988399107545177</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-1.102274210818058</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.3941620985143819</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6230049729347229</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.75778341293335</v>
       </c>
       <c r="H16" t="n">
-        <v>1.055787086486816</v>
+        <v>0.6947360038757324</v>
       </c>
       <c r="I16" t="n">
-        <v>1.010173797607422</v>
+        <v>1.786937832832336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_8</t>
+          <t>model_4_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.43926929678847</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.3049412458345044</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-0.9688307266766614</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.3833158014807394</v>
       </c>
       <c r="F17" t="n">
-        <v>1.087675213813782</v>
+        <v>0.6205636262893677</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.770738363265991</v>
       </c>
       <c r="H17" t="n">
-        <v>1.055787086486816</v>
+        <v>0.6506370902061462</v>
       </c>
       <c r="I17" t="n">
-        <v>1.010173797607422</v>
+        <v>1.773035645484924</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_7</t>
+          <t>model_4_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4677507136954818</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.2412433008828401</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-0.7392018138249805</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.2995972388187813</v>
       </c>
       <c r="F18" t="n">
-        <v>1.087675213813782</v>
+        <v>0.589043140411377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.635490655899048</v>
       </c>
       <c r="H18" t="n">
-        <v>1.055787086486816</v>
+        <v>0.5747519135475159</v>
       </c>
       <c r="I18" t="n">
-        <v>1.010173797607422</v>
+        <v>1.665731191635132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_6</t>
+          <t>model_4_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.4821529743140259</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.2077199448238625</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-0.597169897333103</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.2529643080273858</v>
       </c>
       <c r="F19" t="n">
-        <v>1.087675213813782</v>
+        <v>0.5731040239334106</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.564311504364014</v>
       </c>
       <c r="H19" t="n">
-        <v>1.055787086486816</v>
+        <v>0.5278148055076599</v>
       </c>
       <c r="I19" t="n">
-        <v>1.010173797607422</v>
+        <v>1.605960369110107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_5</t>
+          <t>model_4_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.5241549309862923</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.08090229106970859</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-0.519787050731785</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.1323484786743252</v>
       </c>
       <c r="F20" t="n">
-        <v>1.087675213813782</v>
+        <v>0.5266203284263611</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.2950439453125</v>
       </c>
       <c r="H20" t="n">
-        <v>1.055787086486816</v>
+        <v>0.5022421479225159</v>
       </c>
       <c r="I20" t="n">
-        <v>1.010173797607422</v>
+        <v>1.451363563537598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_4</t>
+          <t>model_4_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.5494752084743664</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.190316107426869</v>
+        <v>-0.007037461340150264</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-0.4048556152670135</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01426804673507953</v>
+        <v>-0.05363801226765519</v>
       </c>
       <c r="F21" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4985981583595276</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9696285724639893</v>
+        <v>2.138209104537964</v>
       </c>
       <c r="H21" t="n">
-        <v>1.055787086486816</v>
+        <v>0.4642608761787415</v>
       </c>
       <c r="I21" t="n">
-        <v>1.010173797607422</v>
+        <v>1.350478053092957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_3</t>
+          <t>model_4_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6270015803126774</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.190316107426869</v>
+        <v>0.2440366913989859</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2496208513927178</v>
+        <v>-0.245966230622173</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01426804673507953</v>
+        <v>0.1858401027742906</v>
       </c>
       <c r="F22" t="n">
-        <v>1.087675213813782</v>
+        <v>0.4127993583679199</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9696285724639893</v>
+        <v>1.605111718177795</v>
       </c>
       <c r="H22" t="n">
-        <v>1.055787086486816</v>
+        <v>0.4117529392242432</v>
       </c>
       <c r="I22" t="n">
-        <v>1.010173797607422</v>
+        <v>1.043532133102417</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_2</t>
+          <t>model_4_5_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7273286034814863</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.190316107426869</v>
+        <v>0.9149962119211804</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2496208513927178</v>
+        <v>0.6041102709755928</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01426804673507953</v>
+        <v>0.8774170518561198</v>
       </c>
       <c r="F23" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3017669022083282</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9696285724639893</v>
+        <v>0.180485725402832</v>
       </c>
       <c r="H23" t="n">
-        <v>1.055787086486816</v>
+        <v>0.1308292001485825</v>
       </c>
       <c r="I23" t="n">
-        <v>1.010173797607422</v>
+        <v>0.1571180820465088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_1</t>
+          <t>model_4_5_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7396013200687955</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.190316107426869</v>
+        <v>0.661403856422475</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2496208513927178</v>
+        <v>0.006353665361202077</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.01426804673507953</v>
+        <v>0.5824884391728402</v>
       </c>
       <c r="F24" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2881845831871033</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9696285724639893</v>
+        <v>0.7189299464225769</v>
       </c>
       <c r="H24" t="n">
-        <v>1.055787086486816</v>
+        <v>0.3283690810203552</v>
       </c>
       <c r="I24" t="n">
-        <v>1.010173797607422</v>
+        <v>0.5351365804672241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_11</t>
+          <t>model_4_5_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7502231566978884</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.190316107426869</v>
+        <v>0.6660524697908434</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2496208513927178</v>
+        <v>0.2248658690512504</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.01426804673507953</v>
+        <v>0.6130780084102597</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2764293551445007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9696285724639893</v>
+        <v>0.7090596556663513</v>
       </c>
       <c r="H25" t="n">
-        <v>1.055787086486816</v>
+        <v>0.2561576068401337</v>
       </c>
       <c r="I25" t="n">
-        <v>1.010173797607422</v>
+        <v>0.495929092168808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_5_24</t>
+          <t>model_4_5_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7579143690161017</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.190316107426869</v>
+        <v>0.6968620497532007</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2496208513927178</v>
+        <v>0.3324950351417244</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01426804673507953</v>
+        <v>0.6531566534980504</v>
       </c>
       <c r="F26" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2679174542427063</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9696285724639893</v>
+        <v>0.6436427235603333</v>
       </c>
       <c r="H26" t="n">
-        <v>1.055787086486816</v>
+        <v>0.2205895632505417</v>
       </c>
       <c r="I26" t="n">
-        <v>1.010173797607422</v>
+        <v>0.4445590972900391</v>
       </c>
     </row>
   </sheetData>
